--- a/Excel-XLSX/UN-MDA.xlsx
+++ b/Excel-XLSX/UN-MDA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="729">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ci7EM7</t>
+    <t>BcT74f</t>
   </si>
   <si>
     <t>1997</t>
@@ -2169,7 +2169,7 @@
     <t>472</t>
   </si>
   <si>
-    <t>3233</t>
+    <t>3164</t>
   </si>
   <si>
     <t>473</t>
@@ -2190,16 +2190,19 @@
     <t>478</t>
   </si>
   <si>
-    <t>121050</t>
-  </si>
-  <si>
-    <t>1341</t>
+    <t>135486</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
   <si>
     <t>479</t>
   </si>
   <si>
     <t>480</t>
+  </si>
+  <si>
+    <t>481</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +2587,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V481"/>
+  <dimension ref="A1:V482"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -33440,7 +33443,7 @@
         <v>61</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P454" s="2" t="s">
         <v>28</v>
@@ -33508,7 +33511,7 @@
         <v>38</v>
       </c>
       <c r="O455" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P455" s="2" t="s">
         <v>28</v>
@@ -33644,7 +33647,7 @@
         <v>28</v>
       </c>
       <c r="O457" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P457" s="2" t="s">
         <v>28</v>
@@ -33712,7 +33715,7 @@
         <v>38</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P458" s="2" t="s">
         <v>28</v>
@@ -33780,7 +33783,7 @@
         <v>28</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P459" s="2" t="s">
         <v>28</v>
@@ -33848,7 +33851,7 @@
         <v>28</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P460" s="2" t="s">
         <v>28</v>
@@ -33981,10 +33984,10 @@
         <v>27</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="P462" s="2" t="s">
         <v>28</v>
@@ -34120,7 +34123,7 @@
         <v>28</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="P464" s="2" t="s">
         <v>28</v>
@@ -34256,7 +34259,7 @@
         <v>28</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P466" s="2" t="s">
         <v>28</v>
@@ -34460,7 +34463,7 @@
         <v>38</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="P469" s="2" t="s">
         <v>28</v>
@@ -34596,7 +34599,7 @@
         <v>28</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P471" s="2" t="s">
         <v>28</v>
@@ -34664,7 +34667,7 @@
         <v>38</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="P472" s="2" t="s">
         <v>28</v>
@@ -34797,7 +34800,7 @@
         <v>27</v>
       </c>
       <c r="N474" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O474" s="2" t="s">
         <v>28</v>
@@ -34865,10 +34868,10 @@
         <v>27</v>
       </c>
       <c r="N475" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="P475" s="2" t="s">
         <v>28</v>
@@ -34936,7 +34939,7 @@
         <v>44</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="P476" s="2" t="s">
         <v>28</v>
@@ -35004,7 +35007,7 @@
         <v>38</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P477" s="2" t="s">
         <v>28</v>
@@ -35069,10 +35072,10 @@
         <v>27</v>
       </c>
       <c r="N478" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="O478" s="2" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="P478" s="2" t="s">
         <v>28</v>
@@ -35140,10 +35143,10 @@
         <v>724</v>
       </c>
       <c r="O479" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="P479" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="P479" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="Q479" s="2" t="s">
         <v>28</v>
@@ -35181,16 +35184,16 @@
         <v>696</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>238</v>
+        <v>657</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>239</v>
+        <v>658</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>239</v>
+        <v>658</v>
       </c>
       <c r="J480" s="2" t="s">
         <v>25</v>
@@ -35205,10 +35208,10 @@
         <v>27</v>
       </c>
       <c r="N480" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="O480" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="P480" s="2" t="s">
         <v>28</v>
@@ -35249,54 +35252,122 @@
         <v>696</v>
       </c>
       <c r="F481" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J481" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N481" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O481" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V481" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F482" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G481" s="1" t="s">
+      <c r="G482" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H481" s="1" t="s">
+      <c r="H482" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I481" s="1" t="s">
+      <c r="I482" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J481" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K481" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L481" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M481" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N481" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O481" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P481" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q481" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R481" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S481" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T481" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U481" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V481" s="2" t="s">
+      <c r="J482" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N482" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T482" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V482" s="2" t="s">
         <v>28</v>
       </c>
     </row>
